--- a/test/yeast/new_rules.xlsx
+++ b/test/yeast/new_rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25520" yWindow="-1180" windowWidth="23040" windowHeight="17280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2480" yWindow="-3720" windowWidth="23040" windowHeight="17260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4992" uniqueCount="2149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4992" uniqueCount="2148">
   <si>
     <t>YGL209W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6045,9 +6045,6 @@
   </si>
   <si>
     <t>UPC2</t>
-  </si>
-  <si>
-    <t>&lt;=&gt;</t>
   </si>
   <si>
     <t>iff</t>
@@ -6932,8 +6929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:J815"/>
   <sheetViews>
-    <sheetView topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="H447" sqref="F2:H447"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6948,57 +6945,57 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B1" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F1" t="s">
         <v>2057</v>
       </c>
-      <c r="D1" t="s">
-        <v>2056</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2055</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2058</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2059</v>
       </c>
-      <c r="H1" t="s">
-        <v>2060</v>
-      </c>
       <c r="I1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D2" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F2" t="s">
         <v>1994</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2107</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H2" t="s">
         <v>1995</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1996</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -7006,114 +7003,114 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D3" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G3" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="G4" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D5" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D6" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D7" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="F7" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H7" t="s">
         <v>1998</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -7121,45 +7118,45 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D8" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D9" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="F9" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H9" t="s">
         <v>2000</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2001</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -7169,13 +7166,13 @@
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="H10" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -7183,79 +7180,79 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D11" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D12" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D13" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D14" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="F14" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H14" t="s">
         <v>2005</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2006</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -7265,13 +7262,13 @@
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="H15" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -7279,28 +7276,28 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D16" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="F16" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="H16" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -7310,13 +7307,13 @@
       <c r="C17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="H17" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -7324,105 +7321,105 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D18" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D19" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D20" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D21" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="G21" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D22" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F22" t="s">
         <v>1994</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>2123</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1995</v>
-      </c>
       <c r="G22" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="H22" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -7430,54 +7427,54 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B23">
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D23" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="G23" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B24">
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D24" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="F24" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H24" t="s">
         <v>2012</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H24" t="s">
-        <v>2013</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -7487,13 +7484,13 @@
       <c r="C25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>2014</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>2015</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -7501,71 +7498,71 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B26">
         <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D26" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G26" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B27">
         <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D27" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B28">
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D28" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>2016</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>2017</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -7575,13 +7572,13 @@
       <c r="C29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -7589,311 +7586,311 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B30">
         <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D30" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B31">
         <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D31" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G31" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B32">
         <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D32" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B33">
         <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D33" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B34">
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D34" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B35">
         <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D35" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G35" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B36">
         <v>30</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D36" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B37">
         <v>31</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D37" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B38">
         <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D38" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G38" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B39">
         <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D39" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G39" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B40">
         <v>34</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D40" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B41">
         <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D41" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B42">
         <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D42" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B43">
         <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D43" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G43" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B44">
         <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D44" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="F44" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H44" t="s">
         <v>2019</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H44" t="s">
-        <v>2020</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -7901,163 +7898,163 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B45">
         <v>39</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D45" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G45" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B46">
         <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D46" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G46" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B47">
         <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D47" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G47" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B48">
         <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D48" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="G48" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B49">
         <v>43</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D49" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B50">
         <v>44</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D50" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B51">
         <v>45</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D51" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>1977</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="G51" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>1977</v>
@@ -8065,16 +8062,16 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B52">
         <v>46</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D52" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>1978</v>
@@ -8082,16 +8079,16 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B53">
         <v>47</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D53" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>1979</v>
@@ -8099,16 +8096,16 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B54">
         <v>48</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D54" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>1980</v>
@@ -8116,25 +8113,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B55">
         <v>49</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D55" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>1981</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="G55" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>1981</v>
@@ -8142,25 +8139,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B56">
         <v>50</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D56" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>1982</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="G56" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>1982</v>
@@ -8168,16 +8165,16 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B57">
         <v>51</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D57" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>1983</v>
@@ -8185,16 +8182,16 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B58">
         <v>52</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D58" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>1984</v>
@@ -8202,25 +8199,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B59">
         <v>53</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D59" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G59" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>1985</v>
@@ -8228,25 +8225,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B60">
         <v>54</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D60" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>1986</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G60" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>1986</v>
@@ -8254,16 +8251,16 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B61">
         <v>55</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D61" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>1987</v>
@@ -8271,16 +8268,16 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B62">
         <v>56</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D62" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>1988</v>
@@ -8288,16 +8285,16 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B63">
         <v>57</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D63" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>1989</v>
@@ -8305,25 +8302,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B64">
         <v>59</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D64" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>1991</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G64" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>1991</v>
@@ -8331,16 +8328,16 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B65">
         <v>60</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D65" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>1992</v>
@@ -8354,22 +8351,22 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>2022</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>2023</v>
-      </c>
       <c r="F66" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>2022</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>2023</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>337</v>
@@ -8383,22 +8380,22 @@
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>2024</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>2025</v>
-      </c>
       <c r="F67" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>2024</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>2025</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>338</v>
@@ -8412,22 +8409,22 @@
         <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>338</v>
@@ -8441,22 +8438,22 @@
         <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>338</v>
@@ -8470,22 +8467,22 @@
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>339</v>
@@ -8499,22 +8496,22 @@
         <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>340</v>
@@ -8528,22 +8525,22 @@
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>338</v>
@@ -8557,22 +8554,22 @@
         <v>8</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>341</v>
@@ -8586,22 +8583,22 @@
         <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>342</v>
@@ -8615,22 +8612,22 @@
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>343</v>
@@ -8644,22 +8641,22 @@
         <v>11</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>2034</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>2035</v>
-      </c>
       <c r="F76" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>2034</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>2035</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>344</v>
@@ -8673,22 +8670,22 @@
         <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>2036</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>2037</v>
-      </c>
       <c r="F77" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>2036</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>2037</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>345</v>
@@ -8702,22 +8699,22 @@
         <v>13</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>2038</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>2039</v>
-      </c>
       <c r="F78" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>2038</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>2039</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>346</v>
@@ -8731,22 +8728,22 @@
         <v>14</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>2040</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>2041</v>
-      </c>
       <c r="F79" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>2040</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>2041</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>347</v>
@@ -8760,22 +8757,22 @@
         <v>15</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>2042</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>2043</v>
-      </c>
       <c r="F80" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>2042</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>2043</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>348</v>
@@ -8789,22 +8786,22 @@
         <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>348</v>
@@ -8818,22 +8815,22 @@
         <v>17</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>348</v>
@@ -8847,22 +8844,22 @@
         <v>18</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>348</v>
@@ -8876,22 +8873,22 @@
         <v>19</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>2047</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>2048</v>
-      </c>
       <c r="F84" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>2047</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>2048</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>349</v>
@@ -8905,22 +8902,22 @@
         <v>20</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>2049</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>2050</v>
-      </c>
       <c r="F85" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>2049</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>2050</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>350</v>
@@ -8934,22 +8931,22 @@
         <v>21</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>2051</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>2052</v>
-      </c>
       <c r="F86" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>2051</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>2052</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>266</v>
@@ -8963,22 +8960,22 @@
         <v>22</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>2053</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>2054</v>
-      </c>
       <c r="F87" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>2053</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>2054</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>267</v>
@@ -9004,7 +9001,7 @@
         <v>1896</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>1897</v>
@@ -9033,7 +9030,7 @@
         <v>1898</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>1899</v>
@@ -9062,7 +9059,7 @@
         <v>1900</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>1901</v>
@@ -9091,7 +9088,7 @@
         <v>1902</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>1903</v>
@@ -9120,7 +9117,7 @@
         <v>1904</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>1905</v>
@@ -9149,7 +9146,7 @@
         <v>1906</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>1907</v>
@@ -9178,7 +9175,7 @@
         <v>1908</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>1909</v>
@@ -9207,7 +9204,7 @@
         <v>1910</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>1911</v>
@@ -9236,7 +9233,7 @@
         <v>1912</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>1913</v>
@@ -9265,7 +9262,7 @@
         <v>1912</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>1914</v>
@@ -9294,7 +9291,7 @@
         <v>1915</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>1916</v>
@@ -9323,7 +9320,7 @@
         <v>1917</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>1918</v>
@@ -9352,7 +9349,7 @@
         <v>1919</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>1920</v>
@@ -9381,7 +9378,7 @@
         <v>1921</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>1922</v>
@@ -9410,7 +9407,7 @@
         <v>1923</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>1924</v>
@@ -9439,7 +9436,7 @@
         <v>1925</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>1926</v>
@@ -9468,7 +9465,7 @@
         <v>1927</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>1928</v>
@@ -9497,7 +9494,7 @@
         <v>1927</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>1929</v>
@@ -9526,7 +9523,7 @@
         <v>1927</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>1930</v>
@@ -9555,7 +9552,7 @@
         <v>1927</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>1931</v>
@@ -9584,7 +9581,7 @@
         <v>1927</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>1932</v>
@@ -9613,7 +9610,7 @@
         <v>1933</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>1934</v>
@@ -9642,7 +9639,7 @@
         <v>1935</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>1936</v>
@@ -9671,7 +9668,7 @@
         <v>1937</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>1938</v>
@@ -9700,7 +9697,7 @@
         <v>1937</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>1939</v>
@@ -9729,7 +9726,7 @@
         <v>1937</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>1940</v>
@@ -9758,7 +9755,7 @@
         <v>1937</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>1941</v>
@@ -9787,7 +9784,7 @@
         <v>1937</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>1942</v>
@@ -9816,7 +9813,7 @@
         <v>1943</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>1944</v>
@@ -9845,7 +9842,7 @@
         <v>1945</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>1946</v>
@@ -9874,7 +9871,7 @@
         <v>1947</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>1948</v>
@@ -9903,7 +9900,7 @@
         <v>1949</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>1950</v>
@@ -9932,7 +9929,7 @@
         <v>1949</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>1951</v>
@@ -9961,7 +9958,7 @@
         <v>1952</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>1953</v>
@@ -9990,7 +9987,7 @@
         <v>1954</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>1955</v>
@@ -10019,7 +10016,7 @@
         <v>1956</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>1957</v>
@@ -10048,7 +10045,7 @@
         <v>1958</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>1959</v>
@@ -10077,7 +10074,7 @@
         <v>1958</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>1960</v>
@@ -10106,7 +10103,7 @@
         <v>1961</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>1962</v>
@@ -10135,7 +10132,7 @@
         <v>1963</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>1964</v>
@@ -10164,7 +10161,7 @@
         <v>1965</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>1966</v>
@@ -10193,7 +10190,7 @@
         <v>1967</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>1968</v>
@@ -10222,7 +10219,7 @@
         <v>1969</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>1970</v>
@@ -10251,7 +10248,7 @@
         <v>1969</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>1971</v>
@@ -10280,7 +10277,7 @@
         <v>1969</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>1972</v>
@@ -10309,7 +10306,7 @@
         <v>1973</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>1974</v>
@@ -10338,7 +10335,7 @@
         <v>1975</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>1976</v>
@@ -10367,7 +10364,7 @@
         <v>1975</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>1802</v>
@@ -10396,7 +10393,7 @@
         <v>1975</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>1803</v>
@@ -10425,7 +10422,7 @@
         <v>1975</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>1804</v>
@@ -10454,7 +10451,7 @@
         <v>1975</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>1805</v>
@@ -10483,7 +10480,7 @@
         <v>1806</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>1807</v>
@@ -10512,7 +10509,7 @@
         <v>1808</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>1809</v>
@@ -10541,7 +10538,7 @@
         <v>1810</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>1811</v>
@@ -10570,7 +10567,7 @@
         <v>1812</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>1813</v>
@@ -10599,7 +10596,7 @@
         <v>1812</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>1814</v>
@@ -10628,7 +10625,7 @@
         <v>1815</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>1816</v>
@@ -10657,7 +10654,7 @@
         <v>1817</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>1818</v>
@@ -10686,7 +10683,7 @@
         <v>1819</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>1820</v>
@@ -10715,7 +10712,7 @@
         <v>1821</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>1822</v>
@@ -10744,7 +10741,7 @@
         <v>1823</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>1824</v>
@@ -10773,7 +10770,7 @@
         <v>1825</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>1826</v>
@@ -10802,7 +10799,7 @@
         <v>1827</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>1828</v>
@@ -10831,7 +10828,7 @@
         <v>1827</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>1829</v>
@@ -10860,7 +10857,7 @@
         <v>1827</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>1830</v>
@@ -10889,7 +10886,7 @@
         <v>1831</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>1832</v>
@@ -10918,7 +10915,7 @@
         <v>1831</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>1833</v>
@@ -10947,7 +10944,7 @@
         <v>1834</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>1835</v>
@@ -10976,7 +10973,7 @@
         <v>1836</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>1837</v>
@@ -11005,7 +11002,7 @@
         <v>1838</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>1839</v>
@@ -11034,7 +11031,7 @@
         <v>1840</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>1841</v>
@@ -11063,7 +11060,7 @@
         <v>1840</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>1842</v>
@@ -11092,7 +11089,7 @@
         <v>1840</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>1843</v>
@@ -11121,7 +11118,7 @@
         <v>1840</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>1844</v>
@@ -11150,7 +11147,7 @@
         <v>1840</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>1845</v>
@@ -11179,7 +11176,7 @@
         <v>1840</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>1846</v>
@@ -11208,7 +11205,7 @@
         <v>1847</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>1848</v>
@@ -11237,7 +11234,7 @@
         <v>1849</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>1850</v>
@@ -11266,7 +11263,7 @@
         <v>1849</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>1851</v>
@@ -11295,7 +11292,7 @@
         <v>1852</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>1853</v>
@@ -11324,7 +11321,7 @@
         <v>1854</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>1855</v>
@@ -11353,7 +11350,7 @@
         <v>1856</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>1857</v>
@@ -11382,7 +11379,7 @@
         <v>1858</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>1859</v>
@@ -11411,7 +11408,7 @@
         <v>1860</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>1861</v>
@@ -11440,7 +11437,7 @@
         <v>1862</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>1863</v>
@@ -11469,7 +11466,7 @@
         <v>1864</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>1865</v>
@@ -11498,7 +11495,7 @@
         <v>1866</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>1867</v>
@@ -11515,7 +11512,7 @@
         <v>110</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>1368</v>
@@ -11524,10 +11521,10 @@
         <v>1868</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>1868</v>
@@ -11544,7 +11541,7 @@
         <v>111</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>1368</v>
@@ -11553,10 +11550,10 @@
         <v>1869</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>1869</v>
@@ -11585,7 +11582,7 @@
         <v>1870</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>1871</v>
@@ -11614,7 +11611,7 @@
         <v>1872</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>1873</v>
@@ -11643,7 +11640,7 @@
         <v>1874</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>1875</v>
@@ -11672,7 +11669,7 @@
         <v>1876</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>1877</v>
@@ -11701,7 +11698,7 @@
         <v>1878</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>1879</v>
@@ -11730,7 +11727,7 @@
         <v>1880</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>1881</v>
@@ -11759,7 +11756,7 @@
         <v>1880</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>1882</v>
@@ -11788,7 +11785,7 @@
         <v>1880</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>1883</v>
@@ -11817,7 +11814,7 @@
         <v>1884</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>1885</v>
@@ -11846,7 +11843,7 @@
         <v>1886</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>1887</v>
@@ -11875,7 +11872,7 @@
         <v>1888</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>1889</v>
@@ -11904,7 +11901,7 @@
         <v>1890</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>1891</v>
@@ -11933,7 +11930,7 @@
         <v>1892</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>1893</v>
@@ -11962,7 +11959,7 @@
         <v>1894</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>1895</v>
@@ -11991,7 +11988,7 @@
         <v>1688</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>1689</v>
@@ -12020,7 +12017,7 @@
         <v>1690</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>1691</v>
@@ -12049,7 +12046,7 @@
         <v>1692</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>1693</v>
@@ -12078,7 +12075,7 @@
         <v>1694</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>1695</v>
@@ -12107,7 +12104,7 @@
         <v>1696</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>1697</v>
@@ -12136,7 +12133,7 @@
         <v>1698</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>1699</v>
@@ -12165,7 +12162,7 @@
         <v>1700</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>1701</v>
@@ -12194,7 +12191,7 @@
         <v>1702</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>1703</v>
@@ -12223,7 +12220,7 @@
         <v>1702</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>1704</v>
@@ -12252,7 +12249,7 @@
         <v>1702</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>1705</v>
@@ -12281,7 +12278,7 @@
         <v>1706</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>1707</v>
@@ -12310,7 +12307,7 @@
         <v>1708</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>1709</v>
@@ -12339,7 +12336,7 @@
         <v>1710</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>1711</v>
@@ -12368,7 +12365,7 @@
         <v>1710</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>1712</v>
@@ -12397,7 +12394,7 @@
         <v>1713</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>1714</v>
@@ -12426,7 +12423,7 @@
         <v>1713</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>1715</v>
@@ -12455,7 +12452,7 @@
         <v>1716</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>1717</v>
@@ -12484,7 +12481,7 @@
         <v>1718</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>1719</v>
@@ -12513,7 +12510,7 @@
         <v>1720</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>1721</v>
@@ -12542,7 +12539,7 @@
         <v>1722</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>1723</v>
@@ -12571,7 +12568,7 @@
         <v>1724</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>1725</v>
@@ -12600,7 +12597,7 @@
         <v>1726</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>1727</v>
@@ -12629,7 +12626,7 @@
         <v>1728</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>1729</v>
@@ -12658,7 +12655,7 @@
         <v>1730</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>1731</v>
@@ -12687,7 +12684,7 @@
         <v>1732</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>1733</v>
@@ -12716,7 +12713,7 @@
         <v>1734</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>1735</v>
@@ -12745,7 +12742,7 @@
         <v>1734</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>1736</v>
@@ -12774,7 +12771,7 @@
         <v>1737</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>1738</v>
@@ -12803,7 +12800,7 @@
         <v>1739</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>1740</v>
@@ -12832,7 +12829,7 @@
         <v>1739</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>1741</v>
@@ -12861,7 +12858,7 @@
         <v>1742</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>1743</v>
@@ -12890,7 +12887,7 @@
         <v>1744</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>1745</v>
@@ -12919,7 +12916,7 @@
         <v>1746</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>1747</v>
@@ -12948,7 +12945,7 @@
         <v>1748</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>1749</v>
@@ -12977,7 +12974,7 @@
         <v>1750</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>1751</v>
@@ -13006,7 +13003,7 @@
         <v>1752</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>1753</v>
@@ -13023,7 +13020,7 @@
         <v>162</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>1368</v>
@@ -13032,10 +13029,10 @@
         <v>1754</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>1754</v>
@@ -13052,7 +13049,7 @@
         <v>163</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>1368</v>
@@ -13061,10 +13058,10 @@
         <v>1755</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>1755</v>
@@ -13081,7 +13078,7 @@
         <v>164</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>1368</v>
@@ -13090,10 +13087,10 @@
         <v>1756</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>1756</v>
@@ -13110,7 +13107,7 @@
         <v>165</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>1368</v>
@@ -13119,10 +13116,10 @@
         <v>1757</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>1757</v>
@@ -13139,7 +13136,7 @@
         <v>166</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>1368</v>
@@ -13148,10 +13145,10 @@
         <v>1758</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>1758</v>
@@ -13168,7 +13165,7 @@
         <v>167</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>1368</v>
@@ -13177,10 +13174,10 @@
         <v>1759</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>1759</v>
@@ -13197,7 +13194,7 @@
         <v>168</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>1368</v>
@@ -13206,10 +13203,10 @@
         <v>1760</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>1760</v>
@@ -13226,7 +13223,7 @@
         <v>169</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>1368</v>
@@ -13235,10 +13232,10 @@
         <v>1761</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>1761</v>
@@ -13255,7 +13252,7 @@
         <v>170</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>1368</v>
@@ -13264,10 +13261,10 @@
         <v>1762</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>1762</v>
@@ -13284,7 +13281,7 @@
         <v>171</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>1368</v>
@@ -13293,10 +13290,10 @@
         <v>1763</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>1763</v>
@@ -13313,7 +13310,7 @@
         <v>172</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1368</v>
@@ -13322,10 +13319,10 @@
         <v>1764</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>1764</v>
@@ -13354,7 +13351,7 @@
         <v>1765</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>1766</v>
@@ -13383,7 +13380,7 @@
         <v>1765</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>1767</v>
@@ -13400,7 +13397,7 @@
         <v>175</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1368</v>
@@ -13409,10 +13406,10 @@
         <v>1768</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>1768</v>
@@ -13429,7 +13426,7 @@
         <v>176</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1368</v>
@@ -13438,10 +13435,10 @@
         <v>1769</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>1769</v>
@@ -13458,7 +13455,7 @@
         <v>177</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1368</v>
@@ -13467,10 +13464,10 @@
         <v>1770</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>1770</v>
@@ -13487,7 +13484,7 @@
         <v>178</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1368</v>
@@ -13496,10 +13493,10 @@
         <v>1771</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>1771</v>
@@ -13516,7 +13513,7 @@
         <v>179</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1368</v>
@@ -13525,10 +13522,10 @@
         <v>1772</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>1772</v>
@@ -13545,7 +13542,7 @@
         <v>180</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1368</v>
@@ -13554,10 +13551,10 @@
         <v>1773</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>1773</v>
@@ -13574,7 +13571,7 @@
         <v>181</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1368</v>
@@ -13583,10 +13580,10 @@
         <v>1774</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>1774</v>
@@ -13603,7 +13600,7 @@
         <v>182</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1368</v>
@@ -13612,10 +13609,10 @@
         <v>1775</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>1775</v>
@@ -13632,7 +13629,7 @@
         <v>183</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1368</v>
@@ -13641,10 +13638,10 @@
         <v>1776</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>1776</v>
@@ -13661,7 +13658,7 @@
         <v>184</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1368</v>
@@ -13670,10 +13667,10 @@
         <v>1777</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>1777</v>
@@ -13690,7 +13687,7 @@
         <v>185</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1368</v>
@@ -13699,10 +13696,10 @@
         <v>1778</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>1778</v>
@@ -13719,7 +13716,7 @@
         <v>186</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1368</v>
@@ -13728,10 +13725,10 @@
         <v>1779</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>1779</v>
@@ -13748,7 +13745,7 @@
         <v>187</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1368</v>
@@ -13757,10 +13754,10 @@
         <v>1780</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>1780</v>
@@ -13777,7 +13774,7 @@
         <v>188</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1368</v>
@@ -13786,10 +13783,10 @@
         <v>1781</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>1781</v>
@@ -13806,7 +13803,7 @@
         <v>189</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1368</v>
@@ -13815,10 +13812,10 @@
         <v>1782</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>1782</v>
@@ -13835,7 +13832,7 @@
         <v>190</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1368</v>
@@ -13844,10 +13841,10 @@
         <v>1783</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>1783</v>
@@ -13864,7 +13861,7 @@
         <v>191</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1368</v>
@@ -13873,10 +13870,10 @@
         <v>1784</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>1784</v>
@@ -13893,7 +13890,7 @@
         <v>192</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1368</v>
@@ -13902,10 +13899,10 @@
         <v>1785</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>1785</v>
@@ -13922,7 +13919,7 @@
         <v>193</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1368</v>
@@ -13931,10 +13928,10 @@
         <v>1786</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>1786</v>
@@ -13951,7 +13948,7 @@
         <v>194</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1368</v>
@@ -13960,10 +13957,10 @@
         <v>1787</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>1787</v>
@@ -13980,7 +13977,7 @@
         <v>195</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1368</v>
@@ -13989,10 +13986,10 @@
         <v>1788</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>1788</v>
@@ -14009,7 +14006,7 @@
         <v>196</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1368</v>
@@ -14018,10 +14015,10 @@
         <v>1789</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>1789</v>
@@ -14038,7 +14035,7 @@
         <v>197</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1368</v>
@@ -14047,10 +14044,10 @@
         <v>1790</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>1790</v>
@@ -14067,7 +14064,7 @@
         <v>198</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1368</v>
@@ -14076,10 +14073,10 @@
         <v>1791</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>1791</v>
@@ -14096,7 +14093,7 @@
         <v>199</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1368</v>
@@ -14105,10 +14102,10 @@
         <v>1792</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>1792</v>
@@ -14125,7 +14122,7 @@
         <v>200</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1368</v>
@@ -14134,10 +14131,10 @@
         <v>1793</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>1793</v>
@@ -14154,7 +14151,7 @@
         <v>201</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1368</v>
@@ -14163,10 +14160,10 @@
         <v>1794</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>1794</v>
@@ -14183,7 +14180,7 @@
         <v>202</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1368</v>
@@ -14192,10 +14189,10 @@
         <v>1795</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>1795</v>
@@ -14212,7 +14209,7 @@
         <v>203</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1368</v>
@@ -14221,10 +14218,10 @@
         <v>1796</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>1796</v>
@@ -14241,7 +14238,7 @@
         <v>204</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1368</v>
@@ -14250,10 +14247,10 @@
         <v>1797</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>1797</v>
@@ -14270,7 +14267,7 @@
         <v>205</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1368</v>
@@ -14279,10 +14276,10 @@
         <v>1798</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>1798</v>
@@ -14299,7 +14296,7 @@
         <v>206</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1368</v>
@@ -14308,10 +14305,10 @@
         <v>1799</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>1799</v>
@@ -14328,7 +14325,7 @@
         <v>207</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1368</v>
@@ -14337,10 +14334,10 @@
         <v>1800</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>1800</v>
@@ -14357,7 +14354,7 @@
         <v>208</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1368</v>
@@ -14366,10 +14363,10 @@
         <v>1801</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>1801</v>
@@ -14386,7 +14383,7 @@
         <v>209</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1368</v>
@@ -14395,10 +14392,10 @@
         <v>1563</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>1563</v>
@@ -14415,7 +14412,7 @@
         <v>210</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1368</v>
@@ -14424,10 +14421,10 @@
         <v>1564</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>1564</v>
@@ -14444,7 +14441,7 @@
         <v>211</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1368</v>
@@ -14453,10 +14450,10 @@
         <v>1565</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>1565</v>
@@ -14473,7 +14470,7 @@
         <v>212</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1368</v>
@@ -14482,10 +14479,10 @@
         <v>1566</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>1566</v>
@@ -14502,7 +14499,7 @@
         <v>213</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1368</v>
@@ -14511,10 +14508,10 @@
         <v>1567</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>1567</v>
@@ -14531,7 +14528,7 @@
         <v>214</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1368</v>
@@ -14540,10 +14537,10 @@
         <v>1568</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>1568</v>
@@ -14560,7 +14557,7 @@
         <v>215</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1368</v>
@@ -14569,10 +14566,10 @@
         <v>1569</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>1569</v>
@@ -14589,7 +14586,7 @@
         <v>216</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1368</v>
@@ -14598,10 +14595,10 @@
         <v>1570</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>1570</v>
@@ -14618,7 +14615,7 @@
         <v>217</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1368</v>
@@ -14627,10 +14624,10 @@
         <v>1571</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>1571</v>
@@ -14647,7 +14644,7 @@
         <v>218</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1368</v>
@@ -14656,10 +14653,10 @@
         <v>1572</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>1572</v>
@@ -14676,7 +14673,7 @@
         <v>219</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1368</v>
@@ -14685,10 +14682,10 @@
         <v>1573</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>1573</v>
@@ -14705,7 +14702,7 @@
         <v>220</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1368</v>
@@ -14714,10 +14711,10 @@
         <v>1574</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>1574</v>
@@ -14734,7 +14731,7 @@
         <v>221</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1368</v>
@@ -14743,10 +14740,10 @@
         <v>1575</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>1575</v>
@@ -14763,7 +14760,7 @@
         <v>222</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1368</v>
@@ -14772,10 +14769,10 @@
         <v>1576</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>1576</v>
@@ -14792,7 +14789,7 @@
         <v>223</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1368</v>
@@ -14801,10 +14798,10 @@
         <v>1577</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>1577</v>
@@ -14821,7 +14818,7 @@
         <v>224</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1368</v>
@@ -14830,10 +14827,10 @@
         <v>1578</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>1578</v>
@@ -14850,7 +14847,7 @@
         <v>225</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>1368</v>
@@ -14859,10 +14856,10 @@
         <v>1579</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>1579</v>
@@ -14879,7 +14876,7 @@
         <v>226</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>1368</v>
@@ -14888,10 +14885,10 @@
         <v>1580</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>1580</v>
@@ -14908,7 +14905,7 @@
         <v>227</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>1368</v>
@@ -14917,10 +14914,10 @@
         <v>1581</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>1581</v>
@@ -14937,7 +14934,7 @@
         <v>228</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>1368</v>
@@ -14946,10 +14943,10 @@
         <v>1582</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>1582</v>
@@ -14966,7 +14963,7 @@
         <v>229</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>1368</v>
@@ -14975,10 +14972,10 @@
         <v>1583</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>1583</v>
@@ -14995,7 +14992,7 @@
         <v>230</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>1368</v>
@@ -15004,10 +15001,10 @@
         <v>1584</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>1584</v>
@@ -15024,7 +15021,7 @@
         <v>231</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>1368</v>
@@ -15033,10 +15030,10 @@
         <v>1585</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>1585</v>
@@ -15053,7 +15050,7 @@
         <v>232</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>1368</v>
@@ -15062,10 +15059,10 @@
         <v>1586</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>1586</v>
@@ -15082,7 +15079,7 @@
         <v>233</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>1368</v>
@@ -15091,10 +15088,10 @@
         <v>1587</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>1587</v>
@@ -15123,7 +15120,7 @@
         <v>1588</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>1589</v>
@@ -15140,7 +15137,7 @@
         <v>235</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>1368</v>
@@ -15149,10 +15146,10 @@
         <v>1590</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>1590</v>
@@ -15169,7 +15166,7 @@
         <v>236</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>1368</v>
@@ -15178,10 +15175,10 @@
         <v>1591</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>1591</v>
@@ -15198,7 +15195,7 @@
         <v>237</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>1368</v>
@@ -15207,10 +15204,10 @@
         <v>1592</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>1592</v>
@@ -15227,7 +15224,7 @@
         <v>238</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>1368</v>
@@ -15236,10 +15233,10 @@
         <v>1593</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>1593</v>
@@ -15256,7 +15253,7 @@
         <v>239</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>1368</v>
@@ -15265,10 +15262,10 @@
         <v>1594</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>1594</v>
@@ -15285,7 +15282,7 @@
         <v>240</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>1368</v>
@@ -15294,10 +15291,10 @@
         <v>1595</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>1595</v>
@@ -15314,7 +15311,7 @@
         <v>241</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>1368</v>
@@ -15323,10 +15320,10 @@
         <v>1596</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>1596</v>
@@ -15343,7 +15340,7 @@
         <v>242</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>1368</v>
@@ -15352,10 +15349,10 @@
         <v>1597</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>1597</v>
@@ -15372,7 +15369,7 @@
         <v>243</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>1368</v>
@@ -15381,10 +15378,10 @@
         <v>1598</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>1598</v>
@@ -15401,7 +15398,7 @@
         <v>244</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>1368</v>
@@ -15410,10 +15407,10 @@
         <v>1599</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>1599</v>
@@ -15430,7 +15427,7 @@
         <v>245</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>1368</v>
@@ -15439,10 +15436,10 @@
         <v>1600</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>1600</v>
@@ -15459,7 +15456,7 @@
         <v>246</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>1368</v>
@@ -15468,10 +15465,10 @@
         <v>1601</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>1601</v>
@@ -15488,7 +15485,7 @@
         <v>247</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>1368</v>
@@ -15497,10 +15494,10 @@
         <v>1602</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>1602</v>
@@ -15517,7 +15514,7 @@
         <v>248</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>1368</v>
@@ -15526,10 +15523,10 @@
         <v>1603</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>1603</v>
@@ -15546,7 +15543,7 @@
         <v>249</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>1368</v>
@@ -15555,10 +15552,10 @@
         <v>1604</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>1604</v>
@@ -15575,7 +15572,7 @@
         <v>250</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>1368</v>
@@ -15584,10 +15581,10 @@
         <v>1605</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>1605</v>
@@ -15604,7 +15601,7 @@
         <v>251</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>1368</v>
@@ -15613,10 +15610,10 @@
         <v>1606</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>1606</v>
@@ -15633,7 +15630,7 @@
         <v>252</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>1368</v>
@@ -15642,10 +15639,10 @@
         <v>1607</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>1607</v>
@@ -15662,7 +15659,7 @@
         <v>253</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>1368</v>
@@ -15671,10 +15668,10 @@
         <v>1608</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>1608</v>
@@ -15691,7 +15688,7 @@
         <v>254</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>1368</v>
@@ -15700,10 +15697,10 @@
         <v>1609</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>1609</v>
@@ -15720,7 +15717,7 @@
         <v>255</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>1368</v>
@@ -15729,10 +15726,10 @@
         <v>1610</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>1610</v>
@@ -15749,7 +15746,7 @@
         <v>256</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>1368</v>
@@ -15758,10 +15755,10 @@
         <v>1611</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>1611</v>
@@ -15778,7 +15775,7 @@
         <v>257</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>1368</v>
@@ -15787,10 +15784,10 @@
         <v>1612</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>1612</v>
@@ -15807,7 +15804,7 @@
         <v>258</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>1368</v>
@@ -15816,10 +15813,10 @@
         <v>1613</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>1613</v>
@@ -15836,7 +15833,7 @@
         <v>259</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>1368</v>
@@ -15845,10 +15842,10 @@
         <v>1614</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>1614</v>
@@ -15865,7 +15862,7 @@
         <v>260</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>1368</v>
@@ -15874,10 +15871,10 @@
         <v>1615</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>1615</v>
@@ -15894,7 +15891,7 @@
         <v>261</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>1368</v>
@@ -15903,10 +15900,10 @@
         <v>1616</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>1616</v>
@@ -15923,7 +15920,7 @@
         <v>262</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>1368</v>
@@ -15932,10 +15929,10 @@
         <v>1617</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>1617</v>
@@ -15952,7 +15949,7 @@
         <v>263</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>1368</v>
@@ -15961,10 +15958,10 @@
         <v>1618</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>1618</v>
@@ -15981,7 +15978,7 @@
         <v>264</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>1368</v>
@@ -15990,10 +15987,10 @@
         <v>1619</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>1619</v>
@@ -16010,7 +16007,7 @@
         <v>265</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>1368</v>
@@ -16019,10 +16016,10 @@
         <v>1620</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>1620</v>
@@ -16039,7 +16036,7 @@
         <v>266</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>1368</v>
@@ -16048,10 +16045,10 @@
         <v>1621</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>1621</v>
@@ -16068,7 +16065,7 @@
         <v>267</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>1368</v>
@@ -16077,10 +16074,10 @@
         <v>1622</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>1622</v>
@@ -16097,7 +16094,7 @@
         <v>268</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>1368</v>
@@ -16106,10 +16103,10 @@
         <v>1623</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>1623</v>
@@ -16126,7 +16123,7 @@
         <v>269</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>1368</v>
@@ -16135,10 +16132,10 @@
         <v>1624</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>1624</v>
@@ -16155,7 +16152,7 @@
         <v>270</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>1368</v>
@@ -16164,10 +16161,10 @@
         <v>1625</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>1625</v>
@@ -16184,7 +16181,7 @@
         <v>271</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>1368</v>
@@ -16193,10 +16190,10 @@
         <v>1626</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>1626</v>
@@ -16213,7 +16210,7 @@
         <v>272</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>1368</v>
@@ -16222,10 +16219,10 @@
         <v>1627</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H337" s="1" t="s">
         <v>1627</v>
@@ -16242,7 +16239,7 @@
         <v>273</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>1368</v>
@@ -16251,10 +16248,10 @@
         <v>1628</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>1628</v>
@@ -16271,7 +16268,7 @@
         <v>274</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>1368</v>
@@ -16280,10 +16277,10 @@
         <v>1629</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>1629</v>
@@ -16300,7 +16297,7 @@
         <v>275</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>1368</v>
@@ -16309,10 +16306,10 @@
         <v>1630</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>1630</v>
@@ -16329,7 +16326,7 @@
         <v>276</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>1368</v>
@@ -16338,10 +16335,10 @@
         <v>1631</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>1631</v>
@@ -16358,7 +16355,7 @@
         <v>277</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>1368</v>
@@ -16367,10 +16364,10 @@
         <v>1632</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>1632</v>
@@ -16387,7 +16384,7 @@
         <v>278</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>1368</v>
@@ -16396,10 +16393,10 @@
         <v>1633</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>1633</v>
@@ -16416,7 +16413,7 @@
         <v>279</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>1368</v>
@@ -16425,10 +16422,10 @@
         <v>1634</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>1634</v>
@@ -16457,7 +16454,7 @@
         <v>1635</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>1636</v>
@@ -16474,7 +16471,7 @@
         <v>281</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>1368</v>
@@ -16483,10 +16480,10 @@
         <v>1637</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>1637</v>
@@ -16503,7 +16500,7 @@
         <v>282</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>1368</v>
@@ -16512,10 +16509,10 @@
         <v>1638</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>1638</v>
@@ -16532,7 +16529,7 @@
         <v>283</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>1368</v>
@@ -16541,10 +16538,10 @@
         <v>1639</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>1639</v>
@@ -16573,7 +16570,7 @@
         <v>1640</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>1641</v>
@@ -16590,7 +16587,7 @@
         <v>285</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>1368</v>
@@ -16599,10 +16596,10 @@
         <v>1642</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>1642</v>
@@ -16619,7 +16616,7 @@
         <v>286</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>1368</v>
@@ -16628,10 +16625,10 @@
         <v>1643</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>1643</v>
@@ -16648,7 +16645,7 @@
         <v>287</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>1368</v>
@@ -16657,10 +16654,10 @@
         <v>1644</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H352" s="1" t="s">
         <v>1644</v>
@@ -16689,7 +16686,7 @@
         <v>1645</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>1646</v>
@@ -16718,7 +16715,7 @@
         <v>1647</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>1648</v>
@@ -16747,7 +16744,7 @@
         <v>1649</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H355" s="1" t="s">
         <v>1650</v>
@@ -16776,7 +16773,7 @@
         <v>1649</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H356" s="1" t="s">
         <v>1651</v>
@@ -16805,7 +16802,7 @@
         <v>1652</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>1653</v>
@@ -16834,7 +16831,7 @@
         <v>1654</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H358" s="1" t="s">
         <v>1655</v>
@@ -16863,7 +16860,7 @@
         <v>1656</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H359" s="1" t="s">
         <v>1657</v>
@@ -16892,7 +16889,7 @@
         <v>1656</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H360" s="1" t="s">
         <v>1658</v>
@@ -16921,7 +16918,7 @@
         <v>1656</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>1659</v>
@@ -16950,7 +16947,7 @@
         <v>1656</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H362" s="1" t="s">
         <v>1660</v>
@@ -16979,7 +16976,7 @@
         <v>1656</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H363" s="1" t="s">
         <v>1661</v>
@@ -17008,7 +17005,7 @@
         <v>1656</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H364" s="1" t="s">
         <v>1662</v>
@@ -17037,7 +17034,7 @@
         <v>1663</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H365" s="1" t="s">
         <v>1664</v>
@@ -17066,7 +17063,7 @@
         <v>1665</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H366" s="1" t="s">
         <v>1666</v>
@@ -17095,7 +17092,7 @@
         <v>1667</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H367" s="1" t="s">
         <v>1668</v>
@@ -17124,7 +17121,7 @@
         <v>1667</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H368" s="1" t="s">
         <v>1669</v>
@@ -17153,7 +17150,7 @@
         <v>1670</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H369" s="1" t="s">
         <v>1671</v>
@@ -17182,7 +17179,7 @@
         <v>1672</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H370" s="1" t="s">
         <v>1673</v>
@@ -17211,7 +17208,7 @@
         <v>1674</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H371" s="1" t="s">
         <v>1675</v>
@@ -17240,7 +17237,7 @@
         <v>1676</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H372" s="1" t="s">
         <v>1677</v>
@@ -17269,7 +17266,7 @@
         <v>1678</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H373" s="1" t="s">
         <v>1679</v>
@@ -17298,7 +17295,7 @@
         <v>1680</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H374" s="1" t="s">
         <v>1681</v>
@@ -17315,7 +17312,7 @@
         <v>310</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>1368</v>
@@ -17324,10 +17321,10 @@
         <v>1682</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H375" s="1" t="s">
         <v>1682</v>
@@ -17356,7 +17353,7 @@
         <v>1683</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H376" s="1" t="s">
         <v>1684</v>
@@ -17373,7 +17370,7 @@
         <v>312</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>1368</v>
@@ -17405,7 +17402,7 @@
         <v>313</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>1368</v>
@@ -17437,7 +17434,7 @@
         <v>314</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>1368</v>
@@ -17469,7 +17466,7 @@
         <v>315</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>1368</v>
@@ -17501,7 +17498,7 @@
         <v>316</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>1368</v>
@@ -17533,7 +17530,7 @@
         <v>317</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>1368</v>
@@ -17565,7 +17562,7 @@
         <v>318</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>1368</v>
@@ -17597,7 +17594,7 @@
         <v>319</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>1368</v>
@@ -17629,7 +17626,7 @@
         <v>320</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>1368</v>
@@ -17661,7 +17658,7 @@
         <v>321</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>1368</v>
@@ -17693,7 +17690,7 @@
         <v>322</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>1368</v>
@@ -17725,7 +17722,7 @@
         <v>323</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>1368</v>
@@ -17757,7 +17754,7 @@
         <v>324</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>1368</v>
@@ -17789,7 +17786,7 @@
         <v>325</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>1368</v>
@@ -17821,7 +17818,7 @@
         <v>326</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>1368</v>
@@ -17853,7 +17850,7 @@
         <v>327</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>1368</v>
@@ -17885,7 +17882,7 @@
         <v>328</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>1368</v>
@@ -17917,7 +17914,7 @@
         <v>329</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>1368</v>
@@ -17949,7 +17946,7 @@
         <v>330</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>1368</v>
@@ -17981,7 +17978,7 @@
         <v>331</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>1368</v>
@@ -18153,7 +18150,7 @@
         <v>339</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>1368</v>
@@ -18182,7 +18179,7 @@
         <v>340</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>1368</v>
@@ -18211,7 +18208,7 @@
         <v>341</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>1368</v>
@@ -18307,7 +18304,7 @@
         <v>1498</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G409" s="1" t="s">
         <v>1392</v>
@@ -18385,7 +18382,7 @@
         <v>347</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>1368</v>
@@ -18559,7 +18556,7 @@
         <v>353</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>1368</v>
@@ -18617,7 +18614,7 @@
         <v>355</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>1368</v>
@@ -18626,10 +18623,10 @@
         <v>1514</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H420" s="1" t="s">
         <v>1514</v>
@@ -18646,7 +18643,7 @@
         <v>356</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>1368</v>
@@ -18655,10 +18652,10 @@
         <v>1515</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H421" s="1" t="s">
         <v>1515</v>
@@ -18675,7 +18672,7 @@
         <v>357</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>1368</v>
@@ -18684,10 +18681,10 @@
         <v>1516</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H422" s="1" t="s">
         <v>1516</v>
@@ -18704,7 +18701,7 @@
         <v>358</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>1368</v>
@@ -18713,10 +18710,10 @@
         <v>1517</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H423" s="1" t="s">
         <v>1517</v>
@@ -18745,7 +18742,7 @@
         <v>1518</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H424" s="1" t="s">
         <v>1519</v>
@@ -18762,7 +18759,7 @@
         <v>360</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>1368</v>
@@ -18771,10 +18768,10 @@
         <v>1520</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H425" s="1" t="s">
         <v>1520</v>
@@ -18791,7 +18788,7 @@
         <v>361</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>1368</v>
@@ -18800,10 +18797,10 @@
         <v>1521</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H426" s="1" t="s">
         <v>1521</v>
@@ -18820,7 +18817,7 @@
         <v>362</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>1368</v>
@@ -18829,10 +18826,10 @@
         <v>1522</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H427" s="1" t="s">
         <v>1522</v>
@@ -18861,7 +18858,7 @@
         <v>1978</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H428" s="1" t="s">
         <v>1523</v>
@@ -18890,7 +18887,7 @@
         <v>1978</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H429" s="1" t="s">
         <v>1524</v>
@@ -18919,7 +18916,7 @@
         <v>1978</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H430" s="1" t="s">
         <v>1525</v>
@@ -18948,7 +18945,7 @@
         <v>1978</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H431" s="1" t="s">
         <v>1526</v>
@@ -18977,7 +18974,7 @@
         <v>1978</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H432" s="1" t="s">
         <v>1527</v>
@@ -19006,7 +19003,7 @@
         <v>1979</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H433" s="1" t="s">
         <v>1528</v>
@@ -19035,7 +19032,7 @@
         <v>1979</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H434" s="1" t="s">
         <v>1529</v>
@@ -19064,7 +19061,7 @@
         <v>1985</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H435" s="1" t="s">
         <v>1530</v>
@@ -19093,7 +19090,7 @@
         <v>1985</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H436" s="1" t="s">
         <v>1531</v>
@@ -19122,7 +19119,7 @@
         <v>1532</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H437" s="1" t="s">
         <v>1533</v>
@@ -19151,7 +19148,7 @@
         <v>1986</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H438" s="1" t="s">
         <v>1534</v>
@@ -19180,7 +19177,7 @@
         <v>1989</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H439" s="1" t="s">
         <v>1535</v>
@@ -19209,7 +19206,7 @@
         <v>1989</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H440" s="1" t="s">
         <v>1536</v>
@@ -19238,7 +19235,7 @@
         <v>1989</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H441" s="1" t="s">
         <v>1537</v>
@@ -19267,7 +19264,7 @@
         <v>1989</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H442" s="1" t="s">
         <v>1538</v>
@@ -19296,7 +19293,7 @@
         <v>1989</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H443" s="1" t="s">
         <v>1539</v>
@@ -19325,7 +19322,7 @@
         <v>1989</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H444" s="1" t="s">
         <v>1540</v>
@@ -19354,7 +19351,7 @@
         <v>1541</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H445" s="1" t="s">
         <v>1542</v>
@@ -19383,7 +19380,7 @@
         <v>1991</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H446" s="1" t="s">
         <v>1543</v>
@@ -19412,7 +19409,7 @@
         <v>1992</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>1993</v>
+        <v>1392</v>
       </c>
       <c r="H447" s="1" t="s">
         <v>1544</v>
@@ -20541,15 +20538,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:B805"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A784" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView topLeftCell="A778" workbookViewId="0">
+      <selection activeCell="B805" sqref="A1:B805"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1393</v>
@@ -20557,7 +20554,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1394</v>
@@ -20565,7 +20562,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1395</v>
@@ -20573,7 +20570,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1396</v>
@@ -20581,7 +20578,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1397</v>
@@ -20589,7 +20586,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1398</v>
@@ -20597,7 +20594,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1399</v>
@@ -20605,7 +20602,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1400</v>
@@ -20613,7 +20610,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1401</v>
@@ -20621,7 +20618,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1402</v>
@@ -20629,7 +20626,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1403</v>
@@ -20637,7 +20634,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1404</v>
@@ -20645,7 +20642,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1405</v>
@@ -20653,7 +20650,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1406</v>
@@ -20661,7 +20658,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1407</v>
@@ -20669,7 +20666,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1408</v>
@@ -20677,7 +20674,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1409</v>
@@ -20685,7 +20682,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1410</v>
@@ -20693,7 +20690,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1411</v>
@@ -20701,7 +20698,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1412</v>
@@ -20709,7 +20706,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1413</v>
@@ -20717,7 +20714,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1414</v>
@@ -20725,7 +20722,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1415</v>
@@ -20733,7 +20730,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1416</v>
@@ -20741,7 +20738,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1417</v>
@@ -20749,7 +20746,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1418</v>
@@ -20757,7 +20754,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1419</v>
@@ -20765,7 +20762,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1420</v>
@@ -20773,7 +20770,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1421</v>
@@ -20781,7 +20778,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1422</v>
@@ -20789,7 +20786,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1423</v>
@@ -20797,7 +20794,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1424</v>
@@ -20805,7 +20802,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1425</v>
@@ -20813,7 +20810,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1426</v>
@@ -20821,7 +20818,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
@@ -20829,7 +20826,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1427</v>
@@ -20837,7 +20834,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1428</v>
@@ -20845,7 +20842,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1429</v>
@@ -20853,7 +20850,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1430</v>
@@ -20861,7 +20858,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1431</v>
@@ -20869,7 +20866,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1432</v>
@@ -20992,7 +20989,7 @@
         <v>1446</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -21000,7 +20997,7 @@
         <v>1447</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -21008,7 +21005,7 @@
         <v>1448</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -21016,7 +21013,7 @@
         <v>1449</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -21024,7 +21021,7 @@
         <v>1450</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -21032,7 +21029,7 @@
         <v>1451</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -21040,7 +21037,7 @@
         <v>1452</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -21048,7 +21045,7 @@
         <v>1453</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -21056,7 +21053,7 @@
         <v>1454</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -21064,7 +21061,7 @@
         <v>1455</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -21072,7 +21069,7 @@
         <v>1456</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -21080,7 +21077,7 @@
         <v>1457</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -21088,7 +21085,7 @@
         <v>1458</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -21096,7 +21093,7 @@
         <v>1459</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -21104,7 +21101,7 @@
         <v>1460</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -21112,7 +21109,7 @@
         <v>1461</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -21120,7 +21117,7 @@
         <v>1181</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -21128,7 +21125,7 @@
         <v>1182</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -21136,7 +21133,7 @@
         <v>1183</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -21144,7 +21141,7 @@
         <v>1184</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -21152,7 +21149,7 @@
         <v>1185</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -21160,7 +21157,7 @@
         <v>1186</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="78" spans="1:2">
